--- a/Shear and Overturning Moment.xlsx
+++ b/Shear and Overturning Moment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Senior Year\Spring\CEE461\Final Project\Shear and Overturning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF17FB47-EBFE-4CD9-8A24-45DE48A6A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F96A1D-4F8C-450B-8FCE-A368480F757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="0" windowWidth="12168" windowHeight="12318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Design Loads and Shear Wall - S" sheetId="1" r:id="rId1"/>
@@ -30,24 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={EDFABB43-4F6F-42D3-BC44-BE22E2790BFD}</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EDFABB43-4F6F-42D3-BC44-BE22E2790BFD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Area above this height</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -162,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,12 +278,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -651,10 +627,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -6427,12 +6404,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Elizabeth Tong" id="{15A4ED5F-E2CB-4A3D-BF0D-3C3C403E878D}" userId="946de757d854df2d" providerId="Windows Live"/>
-</personList>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6728,7277 +6699,7272 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2023-04-18T21:29:37.89" personId="{15A4ED5F-E2CB-4A3D-BF0D-3C3C403E878D}" id="{EDFABB43-4F6F-42D3-BC44-BE22E2790BFD}">
-    <text>Area above this height</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="9.1015625" customWidth="1"/>
-    <col min="3" max="3" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.47265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.9453125" customWidth="1"/>
-    <col min="10" max="10" width="14.62890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.1015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.83984375" hidden="1" customWidth="1"/>
-    <col min="34" max="48" width="0" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="8.83984375" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="1"/>
+    <col min="2" max="2" width="9.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83984375" style="1"/>
+    <col min="6" max="7" width="8.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.9453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="32" width="8.83984375" style="1"/>
+    <col min="33" max="33" width="8.83984375" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="48" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="8.83984375" style="1" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="51" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>171.8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>81885</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>123750</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>$B2*C2/1000</f>
         <v>14067.843000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <f>$B2*D2/1000</f>
         <v>21260.25</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <f>SQRT((0.75*F2)^2+(0.75*G2)^2)</f>
         <v>19119.888092337813</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
         <v>600</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <f>$O$2*$J2*F2</f>
         <v>5655272.8859999999</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <f t="shared" ref="L2:M2" si="0">$O$2*$J2*G2</f>
         <v>8546620.5</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <f t="shared" si="0"/>
         <v>7686195.0131198009</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>0.67</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="2">
         <f>F$7</f>
         <v>13268.073</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="2">
         <f>G$7</f>
         <v>20223.125</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="2">
         <f>H$7</f>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="2">
         <f t="shared" ref="AJ2:AK2" si="1">K$7</f>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="2">
         <f t="shared" si="1"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="2">
         <f>M$7</f>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="2">
         <f>F$26</f>
         <v>9358.74</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="2">
         <f>G$26</f>
         <v>15164.625</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="2">
         <f>H$26</f>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="2">
         <f t="shared" ref="AP2:AR2" si="2">K$26</f>
         <v>2257328.088</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="2">
         <f t="shared" si="2"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="2">
         <f t="shared" si="2"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="2">
         <f>F$45</f>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="2">
         <f>G$45</f>
         <v>8354.85</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="2">
         <f>H$45</f>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="2">
         <f t="shared" ref="AV2:AX2" si="3">K$45</f>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="2">
         <f t="shared" si="3"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="2">
         <f t="shared" si="3"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>171.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>81090</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>122750</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F62" si="4">$B3*C3/1000</f>
         <v>13906.934999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G62" si="5">$B3*D3/1000</f>
         <v>21051.625</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H62" si="6">SQRT((0.75*F3)^2+(0.75*G3)^2)</f>
         <v>18922.809989060905</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>590</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f t="shared" ref="K3:K62" si="7">$O$2*$J3*F3</f>
         <v>5497411.4055000003</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <f t="shared" ref="L3:L62" si="8">$O$2*$J3*G3</f>
         <v>8321707.3624999998</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <f t="shared" ref="M3:M62" si="9">$O$2*$J3*H3</f>
         <v>7480186.7886757758</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="2">
         <f t="shared" ref="AG3:AG62" si="10">F$7</f>
         <v>13268.073</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="2">
         <f t="shared" ref="AH3:AH62" si="11">G$7</f>
         <v>20223.125</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="2">
         <f t="shared" ref="AI3:AI62" si="12">H$7</f>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="2">
         <f t="shared" ref="AJ3:AJ62" si="13">K$7</f>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="2">
         <f t="shared" ref="AK3:AK62" si="14">L$7</f>
         <v>7452221.5625</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="2">
         <f t="shared" ref="AL3:AL62" si="15">M$7</f>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="2">
         <f t="shared" ref="AM3:AM62" si="16">F$26</f>
         <v>9358.74</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="2">
         <f t="shared" ref="AN3:AN62" si="17">G$26</f>
         <v>15164.625</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="2">
         <f t="shared" ref="AO3:AO62" si="18">H$26</f>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="2">
         <f t="shared" ref="AP3:AP62" si="19">K$26</f>
         <v>2257328.088</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="2">
         <f t="shared" ref="AQ3:AQ62" si="20">L$26</f>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="2">
         <f t="shared" ref="AR3:AR62" si="21">M$26</f>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="2">
         <f t="shared" ref="AS3:AS62" si="22">F$45</f>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="2">
         <f t="shared" ref="AT3:AT62" si="23">G$45</f>
         <v>8354.85</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="2">
         <f t="shared" ref="AU3:AU62" si="24">H$45</f>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="2">
         <f t="shared" ref="AV3:AV62" si="25">K$45</f>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3" s="2">
         <f t="shared" ref="AW3:AW62" si="26">L$45</f>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3" s="2">
         <f t="shared" ref="AX3:AX62" si="27">M$45</f>
         <v>795954.34033166687</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>171.2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>80295</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>121750</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <f t="shared" si="4"/>
         <v>13746.504000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" si="5"/>
         <v>20843.599999999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" si="6"/>
         <v>18726.315538965053</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
         <v>580</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f t="shared" si="7"/>
         <v>5341891.4544000011</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <f t="shared" si="8"/>
         <v>8099822.96</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <f t="shared" si="9"/>
         <v>7277046.2184418198</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="1">
         <v>0</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="1">
         <v>50</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="1">
         <v>240</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="1">
         <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>170.9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>79500</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>120750</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <f t="shared" si="4"/>
         <v>13586.55</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="5"/>
         <v>20636.174999999999</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="6"/>
         <v>18530.404973647575</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
         <v>570</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" si="7"/>
         <v>5188703.4450000003</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <f t="shared" si="8"/>
         <v>7880955.2325000009</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <f t="shared" si="9"/>
         <v>7076761.6594360098</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="1">
         <v>25000</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="1">
         <v>50</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="1">
         <v>240</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="1">
         <v>430</v>
       </c>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>170.6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>78705</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>119750</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <f t="shared" si="4"/>
         <v>13427.073</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="5"/>
         <v>20429.349999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="6"/>
         <v>18335.078532911408</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
         <v>560</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="7"/>
         <v>5037837.7896000007</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <f t="shared" si="8"/>
         <v>7665092.1200000001</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <f t="shared" si="9"/>
         <v>6879321.4655483607</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AW6" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>170.3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>77910</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>118750</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
         <f t="shared" si="4"/>
         <v>13268.073</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <f t="shared" si="5"/>
         <v>20223.125</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <f t="shared" si="6"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
         <v>550</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <f t="shared" si="7"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <f t="shared" si="8"/>
         <v>7452221.5625</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="5">
         <f t="shared" si="9"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP7" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AR7" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AW7" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AX7" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1" t="s">
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>60</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>170</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>77115</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>117750</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>13109.55</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="5"/>
         <v>20017.5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="6"/>
         <v>17946.179027637922</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
         <v>540</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f t="shared" si="7"/>
         <v>4743035.1899999995</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <f t="shared" si="8"/>
         <v>7242331.5</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <f t="shared" si="9"/>
         <v>6492927.5721994005</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO8" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AP8" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AQ8" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AR8" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AU8" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AV8" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AW8" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AX8" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BA8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BB8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>70</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>169.7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>76320</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>116750</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <f t="shared" si="4"/>
         <v>12951.504000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f t="shared" si="5"/>
         <v>19812.474999999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="6"/>
         <v>17752.606487127403</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
         <v>530</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="7"/>
         <v>4599079.0704000005</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <f t="shared" si="8"/>
         <v>7035409.8724999996</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <f t="shared" si="9"/>
         <v>6303950.5635789409</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AL9" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AP9" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AR9" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AW9" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AX9" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ9" s="1"/>
-      <c r="BA9">
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="1">
         <v>0</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" s="1">
         <v>50</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" s="1">
         <v>240</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" s="1">
         <v>430</v>
       </c>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>80</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>169.3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>75525</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>115750</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <f t="shared" si="4"/>
         <v>12786.3825</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f t="shared" si="5"/>
         <v>19596.474999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="6"/>
         <v>17549.253347289061</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>520</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="7"/>
         <v>4454775.6630000006</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <f t="shared" si="8"/>
         <v>6827411.8900000006</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <f t="shared" si="9"/>
         <v>6114159.8661955092</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AL10" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM10" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AO10" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AP10" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AR10" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AT10" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AU10" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AV10" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="AW10" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AX10" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1">
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2">
         <v>9000000</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" s="1">
         <v>50</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" s="1">
         <v>240</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="1">
         <v>430</v>
       </c>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>90</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>169</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>74730</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>114750</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <f t="shared" si="4"/>
         <v>12629.37</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f t="shared" si="5"/>
         <v>19392.75</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <f t="shared" si="6"/>
         <v>17356.946830510326</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
         <v>510</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="7"/>
         <v>4315455.7290000012</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <f t="shared" si="8"/>
         <v>6626502.6750000007</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <f t="shared" si="9"/>
         <v>5930868.731985379</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AL11" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AM11" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AN11" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AO11" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AP11" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AQ11" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AR11" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AS11" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AT11" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AU11" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AV11" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW11" s="1">
+      <c r="AW11" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AX11" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>168.7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>73935</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>113750</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <f t="shared" si="4"/>
         <v>12472.834500000001</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <f t="shared" si="5"/>
         <v>19189.625</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="6"/>
         <v>17165.226063442075</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
         <v>500</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <f t="shared" si="7"/>
         <v>4178399.5575000001</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <f t="shared" si="8"/>
         <v>6428524.375</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <f t="shared" si="9"/>
         <v>5750350.731253095</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK12" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AL12" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AM12" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AN12" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AO12" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AP12" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AQ12" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AR12" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AS12" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AT12" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AU12" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AV12" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="AW12" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AX12" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>168.4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>73140</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>112750</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <f t="shared" si="4"/>
         <v>12316.776</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <f t="shared" si="5"/>
         <v>18987.099999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="6"/>
         <v>16974.091354542339</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
         <v>490</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f t="shared" si="7"/>
         <v>4043597.5608000001</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <f t="shared" si="8"/>
         <v>6233464.9299999997</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <f t="shared" si="9"/>
         <v>5572594.1916962499</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AL13" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AM13" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN13" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AO13" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AP13" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AQ13" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AR13" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AS13" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AT13" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AU13" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AV13" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW13" s="1">
+      <c r="AW13" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AX13" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>120</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>168</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>72345</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>111750</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <f t="shared" si="4"/>
         <v>12153.96</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" si="5"/>
         <v>18774</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="6"/>
         <v>16773.558762853514</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
         <v>480</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="7"/>
         <v>3908713.5359999998</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <f t="shared" si="8"/>
         <v>6037718.4000000004</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <f t="shared" si="9"/>
         <v>5394376.4981336901</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AL14" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AN14" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AO14" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AP14" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AQ14" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AR14" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AS14" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AT14" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AU14" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AV14" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="AW14" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AX14" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>167.7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>71550</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>110750</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <f t="shared" si="4"/>
         <v>11998.934999999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f t="shared" si="5"/>
         <v>18572.775000000001</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="6"/>
         <v>16583.692500114477</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
         <v>470</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="7"/>
         <v>3778464.6315000001</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <f t="shared" si="8"/>
         <v>5848566.8475000011</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <f t="shared" si="9"/>
         <v>5222204.7682860494</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AL15" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AN15" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AO15" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AP15" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AQ15" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="AR15" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="AS15" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT15" s="1">
+      <c r="AT15" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU15" s="1">
+      <c r="AU15" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV15" s="1">
+      <c r="AV15" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW15" s="1">
+      <c r="AW15" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX15" s="1">
+      <c r="AX15" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>140</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>167.3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>70755</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>109750</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <f t="shared" si="4"/>
         <v>11837.3115</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <f t="shared" si="5"/>
         <v>18361.174999999999</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="6"/>
         <v>16384.619728494454</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
         <v>460</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f t="shared" si="7"/>
         <v>3648259.4043000005</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <f t="shared" si="8"/>
         <v>5658914.1350000007</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <f t="shared" si="9"/>
         <v>5049739.8003219916</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AG16" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AI16" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AK16" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AL16" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AM16" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AN16" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AO16" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AP16" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="AQ16" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR16" s="1">
+      <c r="AR16" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="AS16" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AT16" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU16" s="1">
+      <c r="AU16" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV16" s="1">
+      <c r="AV16" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW16" s="1">
+      <c r="AW16" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AX16" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>167</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>69960</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>108750</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
         <f t="shared" si="4"/>
         <v>11683.32</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f t="shared" si="5"/>
         <v>18161.25</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="6"/>
         <v>16196.023258164527</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
         <v>450</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f t="shared" si="7"/>
         <v>3522520.98</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <f t="shared" si="8"/>
         <v>5475616.875</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <f t="shared" si="9"/>
         <v>4883101.0123366052</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AL17" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AM17" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AN17" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AO17" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AP17" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AQ17" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AR17" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AS17" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AT17" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU17" s="1">
+      <c r="AU17" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV17" s="1">
+      <c r="AV17" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW17" s="1">
+      <c r="AW17" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AX17" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>160</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>166.6</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>69165</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>107750</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <f t="shared" si="4"/>
         <v>11522.888999999999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f t="shared" si="5"/>
         <v>17951.150000000001</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="6"/>
         <v>15998.411669325549</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
         <v>440</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="7"/>
         <v>3396947.6771999998</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <f t="shared" si="8"/>
         <v>5291999.0200000005</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <f t="shared" si="9"/>
         <v>4716331.7601171723</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AG18" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AI18" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AL18" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AM18" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AN18" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AO18" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AP18" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AQ18" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR18" s="1">
+      <c r="AR18" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS18" s="1">
+      <c r="AS18" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AT18" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU18" s="1">
+      <c r="AU18" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV18" s="1">
+      <c r="AV18" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW18" s="1">
+      <c r="AW18" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AX18" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>170</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>166.3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>68370</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>106750</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <f t="shared" si="4"/>
         <v>11369.931</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <f t="shared" si="5"/>
         <v>17752.525000000001</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="6"/>
         <v>15811.086445480814</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
         <v>430</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f t="shared" si="7"/>
         <v>3275677.1211000006</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <f t="shared" si="8"/>
         <v>5114502.4525000006</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
         <f t="shared" si="9"/>
         <v>4555174.0049430225</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AL19" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AM19" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AN19" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AO19" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AP19" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AQ19" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AR19" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AS19" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AT19" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AU19" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="AV19" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW19" s="1">
+      <c r="AW19" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX19" s="1">
+      <c r="AX19" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>180</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>165.9</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>66780</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>104750</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <f t="shared" si="4"/>
         <v>11078.802</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <f t="shared" si="5"/>
         <v>17378.025000000001</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="6"/>
         <v>15456.835987481521</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
         <v>420</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f t="shared" si="7"/>
         <v>3117574.8828000003</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <f t="shared" si="8"/>
         <v>4890176.2350000013</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <f t="shared" si="9"/>
         <v>4349553.6468773009</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AG20" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AH20" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AI20" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AK20" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AL20" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AM20" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AN20" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AO20" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AP20" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AQ20" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR20" s="1">
+      <c r="AR20" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AS20" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AT20" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AU20" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV20" s="1">
+      <c r="AV20" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW20" s="1">
+      <c r="AW20" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AX20" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>190</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>165.5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>65190</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>102750</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <f t="shared" si="4"/>
         <v>10788.945</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <f t="shared" si="5"/>
         <v>17005.125</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <f t="shared" si="6"/>
         <v>15104.180907756654</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
         <v>410</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f t="shared" si="7"/>
         <v>2963723.1914999997</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <f t="shared" si="8"/>
         <v>4671307.8374999994</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <f t="shared" si="9"/>
         <v>4149118.4953607526</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK21" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AL21" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AM21" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AN21" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AO21" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AP21" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AQ21" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR21" s="1">
+      <c r="AR21" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AS21" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AT21" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AU21" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AV21" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AW21" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AX21" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>165.1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>63600</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>100750</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <f t="shared" si="4"/>
         <v>10500.36</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <f t="shared" si="5"/>
         <v>16633.825000000001</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="6"/>
         <v>14753.125195068895</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
         <v>400</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f t="shared" si="7"/>
         <v>2814096.48</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <f t="shared" si="8"/>
         <v>4457865.1000000006</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <f t="shared" si="9"/>
         <v>3953837.5522784637</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AL22" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AN22" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AO22" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AP22" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AQ22" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AR22" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AV22" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AW22" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>164.7</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>62010</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>98750</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <f t="shared" si="4"/>
         <v>10213.047</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f t="shared" si="5"/>
         <v>16264.124999999998</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="6"/>
         <v>14403.673184639625</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
         <v>390</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="7"/>
         <v>2668669.1811000002</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <f t="shared" si="8"/>
         <v>4249815.8624999998</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <f t="shared" si="9"/>
         <v>3763679.8031463344</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AG23" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AI23" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AL23" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AM23" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AN23" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AO23" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AP23" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AQ23" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AR23" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AS23" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AT23" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AU23" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AV23" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AW23" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AX23" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>220</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>164.3</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>60420</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>96750</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <f t="shared" si="4"/>
         <v>9927.0059999999994</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <f t="shared" si="5"/>
         <v>15896.025000000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="6"/>
         <v>14055.829596474263</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
         <v>380</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <f t="shared" si="7"/>
         <v>2527415.7275999999</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <f t="shared" si="8"/>
         <v>4047127.9650000008</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <f t="shared" si="9"/>
         <v>3578614.2152623478</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AG24" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AI24" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AJ24" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AK24" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AL24" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AM24" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AN24" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AO24" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AP24" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AQ24" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR24" s="1">
+      <c r="AR24" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AS24" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AT24" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU24" s="1">
+      <c r="AU24" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="AV24" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="AW24" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AX24" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>163.9</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>58830</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>94750</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <f t="shared" si="4"/>
         <v>9642.2369999999992</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <f t="shared" si="5"/>
         <v>15529.525</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="6"/>
         <v>13709.599578872065</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
         <v>370</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <f t="shared" si="7"/>
         <v>2390310.5522999996</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="2">
         <f t="shared" si="8"/>
         <v>3849769.2475000001</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <f t="shared" si="9"/>
         <v>3398609.7356023849</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AL25" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AM25" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AN25" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AO25" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AP25" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AQ25" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AR25" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS25" s="1">
+      <c r="AS25" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AT25" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AU25" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AV25" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="AW25" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AX25" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>240</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>163.5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>57240</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>92750</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <f t="shared" si="4"/>
         <v>9358.74</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>15164.625</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <f t="shared" si="6"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
         <v>360</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <f t="shared" si="7"/>
         <v>2257328.088</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <f t="shared" si="8"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="5">
         <f t="shared" si="9"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AG26" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AH26" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AJ26" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AL26" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AM26" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AN26" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AO26" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AP26" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AQ26" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AR26" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS26" s="1">
+      <c r="AS26" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AT26" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AU26" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AV26" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AW26" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AX26" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>163</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>55650</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>90750</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
         <f t="shared" si="4"/>
         <v>9070.9500000000007</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <f t="shared" si="5"/>
         <v>14792.25</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f t="shared" si="6"/>
         <v>13014.019233323443</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
         <v>350</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <f t="shared" si="7"/>
         <v>2127137.7750000004</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="2">
         <f t="shared" si="8"/>
         <v>3468782.625</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="2">
         <f t="shared" si="9"/>
         <v>3051787.5102143474</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AG27" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AH27" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AI27" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AJ27" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AK27" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AL27" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AM27" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AN27" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AO27" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP27" s="1">
+      <c r="AP27" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AQ27" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR27" s="1">
+      <c r="AR27" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS27" s="1">
+      <c r="AS27" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AT27" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU27" s="1">
+      <c r="AU27" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AV27" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="AW27" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX27" s="1">
+      <c r="AX27" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>260</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>162.6</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>54060</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>88750</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
         <f t="shared" si="4"/>
         <v>8790.1560000000009</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <f t="shared" si="5"/>
         <v>14430.75</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <f t="shared" si="6"/>
         <v>12672.856062766405</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
         <v>340</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <f t="shared" si="7"/>
         <v>2002397.5368000004</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="2">
         <f t="shared" si="8"/>
         <v>3287324.85</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="2">
         <f t="shared" si="9"/>
         <v>2886876.611098187</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AG28" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AH28" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AI28" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AJ28" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AK28" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AL28" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AM28" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AN28" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AO28" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP28" s="1">
+      <c r="AP28" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ28" s="1">
+      <c r="AQ28" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR28" s="1">
+      <c r="AR28" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS28" s="1">
+      <c r="AS28" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT28" s="1">
+      <c r="AT28" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU28" s="1">
+      <c r="AU28" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV28" s="1">
+      <c r="AV28" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW28" s="1">
+      <c r="AW28" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX28" s="1">
+      <c r="AX28" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>270</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>162.1</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>52470</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>86750</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
         <f t="shared" si="4"/>
         <v>8505.3870000000006</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <f t="shared" si="5"/>
         <v>14062.174999999999</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <f t="shared" si="6"/>
         <v>12325.72858838765</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2">
         <v>330</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <f t="shared" si="7"/>
         <v>1880541.0657000004</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <f t="shared" si="8"/>
         <v>3109146.8925000001</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="2">
         <f t="shared" si="9"/>
         <v>2725218.5908925096</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AG29" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AH29" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AI29" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AJ29" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AK29" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AL29" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AM29" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AN29" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AO29" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP29" s="1">
+      <c r="AP29" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AQ29" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR29" s="1">
+      <c r="AR29" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS29" s="1">
+      <c r="AS29" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT29" s="1">
+      <c r="AT29" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU29" s="1">
+      <c r="AU29" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AV29" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW29" s="1">
+      <c r="AW29" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AX29" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>280</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>161.69999999999999</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>50880</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>84750</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
         <f t="shared" si="4"/>
         <v>8227.2959999999985</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <f t="shared" si="5"/>
         <v>13704.074999999999</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f t="shared" si="6"/>
         <v>11988.042583380658</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
         <v>320</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <f t="shared" si="7"/>
         <v>1763932.2623999997</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="2">
         <f t="shared" si="8"/>
         <v>2938153.6799999997</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="2">
         <f t="shared" si="9"/>
         <v>2570236.3298768131</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AG30" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AH30" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AI30" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AJ30" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AK30" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AL30" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AM30" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AN30" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AO30" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP30" s="1">
+      <c r="AP30" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ30" s="1">
+      <c r="AQ30" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR30" s="1">
+      <c r="AR30" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS30" s="1">
+      <c r="AS30" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT30" s="1">
+      <c r="AT30" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU30" s="1">
+      <c r="AU30" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV30" s="1">
+      <c r="AV30" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW30" s="1">
+      <c r="AW30" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AX30" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>290</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>49290</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>82750</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
         <f t="shared" si="4"/>
         <v>7945.5479999999989</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <f t="shared" si="5"/>
         <v>13339.299999999997</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <f t="shared" si="6"/>
         <v>11644.789386225324</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
         <v>310</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <f t="shared" si="7"/>
         <v>1650290.3195999998</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="2">
         <f t="shared" si="8"/>
         <v>2770572.61</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="2">
         <f t="shared" si="9"/>
         <v>2418622.7555189999</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AG31" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AH31" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AI31" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AJ31" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AK31" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AL31" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AM31" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AN31" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AO31" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP31" s="1">
+      <c r="AP31" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AQ31" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR31" s="1">
+      <c r="AR31" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS31" s="1">
+      <c r="AS31" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT31" s="1">
+      <c r="AT31" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU31" s="1">
+      <c r="AU31" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV31" s="1">
+      <c r="AV31" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW31" s="1">
+      <c r="AW31" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX31" s="1">
+      <c r="AX31" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>300</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>160.69999999999999</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>47700</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>80750</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
         <f t="shared" si="4"/>
         <v>7665.3899999999994</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <f t="shared" si="5"/>
         <v>12976.525</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <f t="shared" si="6"/>
         <v>11303.582519353999</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
         <v>300</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <f t="shared" si="7"/>
         <v>1540743.39</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="2">
         <f t="shared" si="8"/>
         <v>2608281.5249999999</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="2">
         <f t="shared" si="9"/>
         <v>2272020.0863901535</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AG32" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AH32" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AI32" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AJ32" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AK32" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AL32" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AM32" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN32" s="1">
+      <c r="AN32" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO32" s="1">
+      <c r="AO32" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP32" s="1">
+      <c r="AP32" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AQ32" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR32" s="1">
+      <c r="AR32" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS32" s="1">
+      <c r="AS32" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT32" s="1">
+      <c r="AT32" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU32" s="1">
+      <c r="AU32" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV32" s="1">
+      <c r="AV32" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW32" s="1">
+      <c r="AW32" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX32" s="1">
+      <c r="AX32" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>160.19999999999999</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>46110</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>78750</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
         <f t="shared" si="4"/>
         <v>7386.8219999999992</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <f t="shared" si="5"/>
         <v>12615.75</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <f t="shared" si="6"/>
         <v>10964.432799681363</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
         <v>290</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <f t="shared" si="7"/>
         <v>1435259.5145999999</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="2">
         <f t="shared" si="8"/>
         <v>2451240.2250000001</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="2">
         <f t="shared" si="9"/>
         <v>2130389.2929780888</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AG33" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AH33" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AI33" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AJ33" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AK33" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL33" s="1">
+      <c r="AL33" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AM33" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AN33" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AO33" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP33" s="1">
+      <c r="AP33" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AQ33" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR33" s="1">
+      <c r="AR33" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS33" s="1">
+      <c r="AS33" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT33" s="1">
+      <c r="AT33" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU33" s="1">
+      <c r="AU33" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV33" s="1">
+      <c r="AV33" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW33" s="1">
+      <c r="AW33" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX33" s="1">
+      <c r="AX33" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>320</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>159.69999999999999</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>44520</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>76750</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
         <f t="shared" si="4"/>
         <v>7109.8439999999991</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <f t="shared" si="5"/>
         <v>12256.975</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <f t="shared" si="6"/>
         <v>10627.352271069947</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
         <v>280</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <f t="shared" si="7"/>
         <v>1333806.7344</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="2">
         <f t="shared" si="8"/>
         <v>2299408.5100000002</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="2">
         <f t="shared" si="9"/>
         <v>1993691.2860527223</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AG34" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AH34" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AI34" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AJ34" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AK34" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL34" s="1">
+      <c r="AL34" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AM34" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="AN34" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="AO34" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP34" s="1">
+      <c r="AP34" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AQ34" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR34" s="1">
+      <c r="AR34" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS34" s="1">
+      <c r="AS34" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT34" s="1">
+      <c r="AT34" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU34" s="1">
+      <c r="AU34" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV34" s="1">
+      <c r="AV34" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW34" s="1">
+      <c r="AW34" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX34" s="1">
+      <c r="AX34" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>330</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>159.1</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>42930</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>74750</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
         <f t="shared" si="4"/>
         <v>6830.1629999999996</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <f t="shared" si="5"/>
         <v>11892.725</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <f t="shared" si="6"/>
         <v>10285.889335607259</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
         <v>270</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <f t="shared" si="7"/>
         <v>1235576.4867</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="2">
         <f t="shared" si="8"/>
         <v>2151393.9525000001</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="2">
         <f t="shared" si="9"/>
         <v>1860717.3808113532</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AG35" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AH35" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AI35" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AJ35" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AK35" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL35" s="1">
+      <c r="AL35" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM35" s="1">
+      <c r="AM35" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN35" s="1">
+      <c r="AN35" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO35" s="1">
+      <c r="AO35" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP35" s="1">
+      <c r="AP35" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ35" s="1">
+      <c r="AQ35" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR35" s="1">
+      <c r="AR35" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS35" s="1">
+      <c r="AS35" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT35" s="1">
+      <c r="AT35" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU35" s="1">
+      <c r="AU35" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV35" s="1">
+      <c r="AV35" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW35" s="1">
+      <c r="AW35" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX35" s="1">
+      <c r="AX35" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>340</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>158.6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>41340</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>72750</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
         <f t="shared" si="4"/>
         <v>6556.5240000000003</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="2">
         <f t="shared" si="5"/>
         <v>11538.15</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <f t="shared" si="6"/>
         <v>9953.178548413829</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
         <v>260</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="2">
         <f t="shared" si="7"/>
         <v>1142146.4808000003</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="2">
         <f t="shared" si="8"/>
         <v>2009945.7300000002</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="2">
         <f t="shared" si="9"/>
         <v>1733843.7031336892</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AG36" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AH36" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AI36" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AJ36" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AK36" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL36" s="1">
+      <c r="AL36" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM36" s="1">
+      <c r="AM36" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN36" s="1">
+      <c r="AN36" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO36" s="1">
+      <c r="AO36" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP36" s="1">
+      <c r="AP36" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ36" s="1">
+      <c r="AQ36" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR36" s="1">
+      <c r="AR36" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS36" s="1">
+      <c r="AS36" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT36" s="1">
+      <c r="AT36" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU36" s="1">
+      <c r="AU36" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV36" s="1">
+      <c r="AV36" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW36" s="1">
+      <c r="AW36" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX36" s="1">
+      <c r="AX36" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>350</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>158</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>39750</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>70750</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
         <f t="shared" si="4"/>
         <v>6280.5</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="2">
         <f t="shared" si="5"/>
         <v>11178.5</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <f t="shared" si="6"/>
         <v>9616.495861604164</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
         <v>250</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="2">
         <f t="shared" si="7"/>
         <v>1051983.75</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="2">
         <f t="shared" si="8"/>
         <v>1872398.75</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="2">
         <f t="shared" si="9"/>
         <v>1610763.0568186974</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AG37" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AH37" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AI37" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AJ37" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AK37" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL37" s="1">
+      <c r="AL37" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM37" s="1">
+      <c r="AM37" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN37" s="1">
+      <c r="AN37" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO37" s="1">
+      <c r="AO37" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP37" s="1">
+      <c r="AP37" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ37" s="1">
+      <c r="AQ37" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR37" s="1">
+      <c r="AR37" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS37" s="1">
+      <c r="AS37" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT37" s="1">
+      <c r="AT37" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU37" s="1">
+      <c r="AU37" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV37" s="1">
+      <c r="AV37" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW37" s="1">
+      <c r="AW37" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX37" s="1">
+      <c r="AX37" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>360</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>157.4</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>38160</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>68750</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
         <f t="shared" si="4"/>
         <v>6006.384</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="2">
         <f t="shared" si="5"/>
         <v>10821.25</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <f t="shared" si="6"/>
         <v>9282.324947385232</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
         <v>240</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <f t="shared" si="7"/>
         <v>965826.54720000003</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="2">
         <f t="shared" si="8"/>
         <v>1740057.0000000002</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="2">
         <f t="shared" si="9"/>
         <v>1492597.8515395455</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AG38" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AH38" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AI38" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AJ38" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AK38" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AL38" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AM38" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN38" s="1">
+      <c r="AN38" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO38" s="1">
+      <c r="AO38" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP38" s="1">
+      <c r="AP38" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="AQ38" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR38" s="1">
+      <c r="AR38" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS38" s="1">
+      <c r="AS38" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT38" s="1">
+      <c r="AT38" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU38" s="1">
+      <c r="AU38" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV38" s="1">
+      <c r="AV38" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW38" s="1">
+      <c r="AW38" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="AX38" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>370</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>156.80000000000001</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>36570</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>66750</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
         <f t="shared" si="4"/>
         <v>5734.1760000000004</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="2">
         <f t="shared" si="5"/>
         <v>10466.4</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <f t="shared" si="6"/>
         <v>8950.6868808725503</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
         <v>230</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="2">
         <f t="shared" si="7"/>
         <v>883636.52160000021</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="2">
         <f t="shared" si="8"/>
         <v>1612872.2400000002</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="2">
         <f t="shared" si="9"/>
         <v>1379300.8483424601</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AG39" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AH39" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AI39" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AJ39" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AK39" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL39" s="1">
+      <c r="AL39" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AM39" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN39" s="1">
+      <c r="AN39" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO39" s="1">
+      <c r="AO39" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP39" s="1">
+      <c r="AP39" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ39" s="1">
+      <c r="AQ39" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR39" s="1">
+      <c r="AR39" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS39" s="1">
+      <c r="AS39" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT39" s="1">
+      <c r="AT39" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU39" s="1">
+      <c r="AU39" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV39" s="1">
+      <c r="AV39" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW39" s="1">
+      <c r="AW39" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX39" s="1">
+      <c r="AX39" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>380</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>156.19999999999999</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>34980</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>64750</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
         <f t="shared" si="4"/>
         <v>5463.8760000000002</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <f t="shared" si="5"/>
         <v>10113.950000000001</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="2">
         <f t="shared" si="6"/>
         <v>8621.6055998610409</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
         <v>220</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="2">
         <f t="shared" si="7"/>
         <v>805375.32240000006</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="2">
         <f t="shared" si="8"/>
         <v>1490796.2300000002</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="2">
         <f t="shared" si="9"/>
         <v>1270824.6654195176</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AG40" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AH40" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI40" s="1">
+      <c r="AI40" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="AJ40" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AK40" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL40" s="1">
+      <c r="AL40" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM40" s="1">
+      <c r="AM40" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN40" s="1">
+      <c r="AN40" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO40" s="1">
+      <c r="AO40" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP40" s="1">
+      <c r="AP40" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="AQ40" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR40" s="1">
+      <c r="AR40" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS40" s="1">
+      <c r="AS40" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT40" s="1">
+      <c r="AT40" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU40" s="1">
+      <c r="AU40" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV40" s="1">
+      <c r="AV40" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW40" s="1">
+      <c r="AW40" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX40" s="1">
+      <c r="AX40" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>390</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>155.5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>33390</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>62750</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
         <f t="shared" si="4"/>
         <v>5192.1450000000004</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <f t="shared" si="5"/>
         <v>9757.625</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="2">
         <f t="shared" si="6"/>
         <v>8289.7773570632235</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
         <v>210</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="2">
         <f t="shared" si="7"/>
         <v>730534.80150000018</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="2">
         <f t="shared" si="8"/>
         <v>1372897.8375000001</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="2">
         <f t="shared" si="9"/>
         <v>1166371.6741387956</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AG41" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AH41" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AI41" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ41" s="1">
+      <c r="AJ41" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AK41" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL41" s="1">
+      <c r="AL41" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM41" s="1">
+      <c r="AM41" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN41" s="1">
+      <c r="AN41" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO41" s="1">
+      <c r="AO41" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP41" s="1">
+      <c r="AP41" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AQ41" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR41" s="1">
+      <c r="AR41" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS41" s="1">
+      <c r="AS41" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT41" s="1">
+      <c r="AT41" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU41" s="1">
+      <c r="AU41" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV41" s="1">
+      <c r="AV41" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW41" s="1">
+      <c r="AW41" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX41" s="1">
+      <c r="AX41" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>400</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>154.9</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>31800</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>60750</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
         <f t="shared" si="4"/>
         <v>4925.82</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <f t="shared" si="5"/>
         <v>9410.1749999999993</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <f t="shared" si="6"/>
         <v>7966.0838317332282</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
         <v>200</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="2">
         <f t="shared" si="7"/>
         <v>660059.88</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="2">
         <f t="shared" si="8"/>
         <v>1260963.45</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="2">
         <f t="shared" si="9"/>
         <v>1067455.2334522526</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AG42" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH42" s="1">
+      <c r="AH42" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI42" s="1">
+      <c r="AI42" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ42" s="1">
+      <c r="AJ42" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AK42" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL42" s="1">
+      <c r="AL42" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM42" s="1">
+      <c r="AM42" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN42" s="1">
+      <c r="AN42" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO42" s="1">
+      <c r="AO42" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP42" s="1">
+      <c r="AP42" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ42" s="1">
+      <c r="AQ42" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR42" s="1">
+      <c r="AR42" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS42" s="1">
+      <c r="AS42" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT42" s="1">
+      <c r="AT42" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU42" s="1">
+      <c r="AU42" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV42" s="1">
+      <c r="AV42" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW42" s="1">
+      <c r="AW42" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX42" s="1">
+      <c r="AX42" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>410</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>154.19999999999999</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>30210</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>58750</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
         <f t="shared" si="4"/>
         <v>4658.3819999999996</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="2">
         <f t="shared" si="5"/>
         <v>9059.25</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="2">
         <f t="shared" si="6"/>
         <v>7640.0867173735996</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
         <v>190</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="2">
         <f t="shared" si="7"/>
         <v>593012.02859999996</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="2">
         <f t="shared" si="8"/>
         <v>1153242.5250000001</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="2">
         <f t="shared" si="9"/>
         <v>972583.03912165936</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="AG43" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH43" s="1">
+      <c r="AH43" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI43" s="1">
+      <c r="AI43" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ43" s="1">
+      <c r="AJ43" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK43" s="1">
+      <c r="AK43" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL43" s="1">
+      <c r="AL43" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM43" s="1">
+      <c r="AM43" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN43" s="1">
+      <c r="AN43" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO43" s="1">
+      <c r="AO43" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP43" s="1">
+      <c r="AP43" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ43" s="1">
+      <c r="AQ43" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR43" s="1">
+      <c r="AR43" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS43" s="1">
+      <c r="AS43" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT43" s="1">
+      <c r="AT43" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU43" s="1">
+      <c r="AU43" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV43" s="1">
+      <c r="AV43" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW43" s="1">
+      <c r="AW43" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX43" s="1">
+      <c r="AX43" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>420</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>153.4</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>28620</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>56750</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
         <f t="shared" si="4"/>
         <v>4390.308</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <f t="shared" si="5"/>
         <v>8705.4500000000007</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="2">
         <f t="shared" si="6"/>
         <v>7312.3909237004864</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
         <v>180</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="2">
         <f t="shared" si="7"/>
         <v>529471.14480000001</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="2">
         <f t="shared" si="8"/>
         <v>1049877.2700000003</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="2">
         <f t="shared" si="9"/>
         <v>881874.34539827867</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AG44" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="AH44" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AI44" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AJ44" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AK44" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL44" s="1">
+      <c r="AL44" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM44" s="1">
+      <c r="AM44" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="AN44" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO44" s="1">
+      <c r="AO44" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP44" s="1">
+      <c r="AP44" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ44" s="1">
+      <c r="AQ44" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR44" s="1">
+      <c r="AR44" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS44" s="1">
+      <c r="AS44" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT44" s="1">
+      <c r="AT44" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU44" s="1">
+      <c r="AU44" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV44" s="1">
+      <c r="AV44" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW44" s="1">
+      <c r="AW44" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX44" s="1">
+      <c r="AX44" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>430</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>152.6</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>27030</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>54750</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
         <f t="shared" si="4"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <f t="shared" si="5"/>
         <v>8354.85</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="2">
         <f t="shared" si="6"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
         <v>170</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="2">
         <f t="shared" si="7"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="2">
         <f t="shared" si="8"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="2">
         <f t="shared" si="9"/>
         <v>795954.34033166687</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AG45" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH45" s="1">
+      <c r="AH45" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI45" s="1">
+      <c r="AI45" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ45" s="1">
+      <c r="AJ45" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK45" s="1">
+      <c r="AK45" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL45" s="1">
+      <c r="AL45" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM45" s="1">
+      <c r="AM45" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN45" s="1">
+      <c r="AN45" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO45" s="1">
+      <c r="AO45" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP45" s="1">
+      <c r="AP45" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ45" s="1">
+      <c r="AQ45" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR45" s="1">
+      <c r="AR45" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS45" s="1">
+      <c r="AS45" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT45" s="1">
+      <c r="AT45" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU45" s="1">
+      <c r="AU45" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV45" s="1">
+      <c r="AV45" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW45" s="1">
+      <c r="AW45" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX45" s="1">
+      <c r="AX45" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>440</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>151.80000000000001</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>25440</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>52750</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
         <f t="shared" si="4"/>
         <v>3861.7920000000004</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <f t="shared" si="5"/>
         <v>8007.4500000000007</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <f t="shared" si="6"/>
         <v>6667.525012063491</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
         <v>160</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="2">
         <f t="shared" si="7"/>
         <v>413984.10240000003</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="2">
         <f t="shared" si="8"/>
         <v>858398.64000000013</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="2">
         <f t="shared" si="9"/>
         <v>714758.68129320629</v>
       </c>
-      <c r="AG46" s="1">
+      <c r="AG46" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH46" s="1">
+      <c r="AH46" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI46" s="1">
+      <c r="AI46" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ46" s="1">
+      <c r="AJ46" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK46" s="1">
+      <c r="AK46" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL46" s="1">
+      <c r="AL46" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM46" s="1">
+      <c r="AM46" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN46" s="1">
+      <c r="AN46" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO46" s="1">
+      <c r="AO46" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP46" s="1">
+      <c r="AP46" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ46" s="1">
+      <c r="AQ46" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR46" s="1">
+      <c r="AR46" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS46" s="1">
+      <c r="AS46" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT46" s="1">
+      <c r="AT46" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU46" s="1">
+      <c r="AU46" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV46" s="1">
+      <c r="AV46" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW46" s="1">
+      <c r="AW46" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX46" s="1">
+      <c r="AX46" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>450</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>151</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>23850</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>50750</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
         <f t="shared" si="4"/>
         <v>3601.35</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <f t="shared" si="5"/>
         <v>7663.25</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <f t="shared" si="6"/>
         <v>6350.4729226698146</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
         <v>150</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="2">
         <f t="shared" si="7"/>
         <v>361935.67499999999</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="2">
         <f t="shared" si="8"/>
         <v>770156.625</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="2">
         <f t="shared" si="9"/>
         <v>638222.52872831642</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AG47" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH47" s="1">
+      <c r="AH47" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI47" s="1">
+      <c r="AI47" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ47" s="1">
+      <c r="AJ47" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AK47" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL47" s="1">
+      <c r="AL47" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM47" s="1">
+      <c r="AM47" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN47" s="1">
+      <c r="AN47" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO47" s="1">
+      <c r="AO47" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP47" s="1">
+      <c r="AP47" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ47" s="1">
+      <c r="AQ47" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR47" s="1">
+      <c r="AR47" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS47" s="1">
+      <c r="AS47" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT47" s="1">
+      <c r="AT47" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU47" s="1">
+      <c r="AU47" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV47" s="1">
+      <c r="AV47" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW47" s="1">
+      <c r="AW47" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX47" s="1">
+      <c r="AX47" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>460</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>150.1</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>22260</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>48750</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
         <f t="shared" si="4"/>
         <v>3341.2260000000001</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <f t="shared" si="5"/>
         <v>7317.375</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <f t="shared" si="6"/>
         <v>6033.0854081022926</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
         <v>140</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="2">
         <f t="shared" si="7"/>
         <v>313406.99880000006</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="2">
         <f t="shared" si="8"/>
         <v>686369.77500000014</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="2">
         <f t="shared" si="9"/>
         <v>565903.41127999511</v>
       </c>
-      <c r="AG48" s="1">
+      <c r="AG48" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH48" s="1">
+      <c r="AH48" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI48" s="1">
+      <c r="AI48" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ48" s="1">
+      <c r="AJ48" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK48" s="1">
+      <c r="AK48" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL48" s="1">
+      <c r="AL48" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM48" s="1">
+      <c r="AM48" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN48" s="1">
+      <c r="AN48" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO48" s="1">
+      <c r="AO48" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP48" s="1">
+      <c r="AP48" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ48" s="1">
+      <c r="AQ48" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR48" s="1">
+      <c r="AR48" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS48" s="1">
+      <c r="AS48" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT48" s="1">
+      <c r="AT48" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU48" s="1">
+      <c r="AU48" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV48" s="1">
+      <c r="AV48" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW48" s="1">
+      <c r="AW48" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX48" s="1">
+      <c r="AX48" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>470</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>149.1</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>20670</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>45446</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
         <f t="shared" si="4"/>
         <v>3081.8969999999999</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <f t="shared" si="5"/>
         <v>6775.9985999999999</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <f t="shared" si="6"/>
         <v>5582.9551723991717</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
         <v>130</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="2">
         <f t="shared" si="7"/>
         <v>268433.22870000004</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="2">
         <f t="shared" si="8"/>
         <v>590189.47805999999</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="2">
         <f t="shared" si="9"/>
         <v>486275.39551596792</v>
       </c>
-      <c r="AG49" s="1">
+      <c r="AG49" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH49" s="1">
+      <c r="AH49" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI49" s="1">
+      <c r="AI49" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ49" s="1">
+      <c r="AJ49" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK49" s="1">
+      <c r="AK49" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL49" s="1">
+      <c r="AL49" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM49" s="1">
+      <c r="AM49" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN49" s="1">
+      <c r="AN49" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO49" s="1">
+      <c r="AO49" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP49" s="1">
+      <c r="AP49" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ49" s="1">
+      <c r="AQ49" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR49" s="1">
+      <c r="AR49" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS49" s="1">
+      <c r="AS49" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT49" s="1">
+      <c r="AT49" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU49" s="1">
+      <c r="AU49" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV49" s="1">
+      <c r="AV49" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW49" s="1">
+      <c r="AW49" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX49" s="1">
+      <c r="AX49" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>480</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>148.1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>19080</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>42143</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
         <f t="shared" si="4"/>
         <v>2825.748</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <f t="shared" si="5"/>
         <v>6241.3782999999994</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <f t="shared" si="6"/>
         <v>5138.4390479316153</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
         <v>120</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="2">
         <f t="shared" si="7"/>
         <v>227190.13920000003</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="2">
         <f t="shared" si="8"/>
         <v>501806.81531999999</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="2">
         <f t="shared" si="9"/>
         <v>413130.49945370189</v>
       </c>
-      <c r="AG50" s="1">
+      <c r="AG50" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH50" s="1">
+      <c r="AH50" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI50" s="1">
+      <c r="AI50" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ50" s="1">
+      <c r="AJ50" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK50" s="1">
+      <c r="AK50" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL50" s="1">
+      <c r="AL50" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM50" s="1">
+      <c r="AM50" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN50" s="1">
+      <c r="AN50" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO50" s="1">
+      <c r="AO50" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP50" s="1">
+      <c r="AP50" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ50" s="1">
+      <c r="AQ50" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR50" s="1">
+      <c r="AR50" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS50" s="1">
+      <c r="AS50" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT50" s="1">
+      <c r="AT50" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU50" s="1">
+      <c r="AU50" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV50" s="1">
+      <c r="AV50" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW50" s="1">
+      <c r="AW50" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX50" s="1">
+      <c r="AX50" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>490</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>146.9</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>17490</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>38839</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
         <f t="shared" si="4"/>
         <v>2569.2809999999999</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <f t="shared" si="5"/>
         <v>5705.4491000000007</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <f t="shared" si="6"/>
         <v>4692.9480913311991</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
         <v>110</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="2">
         <f t="shared" si="7"/>
         <v>189356.0097</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="2">
         <f t="shared" si="8"/>
         <v>420491.59867000009</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="2">
         <f t="shared" si="9"/>
         <v>345870.27433110937</v>
       </c>
-      <c r="AG51" s="1">
+      <c r="AG51" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH51" s="1">
+      <c r="AH51" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI51" s="1">
+      <c r="AI51" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ51" s="1">
+      <c r="AJ51" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK51" s="1">
+      <c r="AK51" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL51" s="1">
+      <c r="AL51" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM51" s="1">
+      <c r="AM51" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN51" s="1">
+      <c r="AN51" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO51" s="1">
+      <c r="AO51" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP51" s="1">
+      <c r="AP51" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ51" s="1">
+      <c r="AQ51" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR51" s="1">
+      <c r="AR51" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS51" s="1">
+      <c r="AS51" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT51" s="1">
+      <c r="AT51" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU51" s="1">
+      <c r="AU51" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV51" s="1">
+      <c r="AV51" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW51" s="1">
+      <c r="AW51" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX51" s="1">
+      <c r="AX51" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>500</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>145.69999999999999</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>15900</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>35535</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
         <f t="shared" si="4"/>
         <v>2316.63</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <f t="shared" si="5"/>
         <v>5177.4494999999997</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <f t="shared" si="6"/>
         <v>4254.0776096113968</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2">
         <v>100</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="2">
         <f t="shared" si="7"/>
         <v>155214.21000000002</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="2">
         <f t="shared" si="8"/>
         <v>346889.1165</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="2">
         <f t="shared" si="9"/>
         <v>285023.19984396361</v>
       </c>
-      <c r="AG52" s="1">
+      <c r="AG52" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH52" s="1">
+      <c r="AH52" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI52" s="1">
+      <c r="AI52" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ52" s="1">
+      <c r="AJ52" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK52" s="1">
+      <c r="AK52" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL52" s="1">
+      <c r="AL52" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM52" s="1">
+      <c r="AM52" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN52" s="1">
+      <c r="AN52" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO52" s="1">
+      <c r="AO52" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP52" s="1">
+      <c r="AP52" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ52" s="1">
+      <c r="AQ52" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR52" s="1">
+      <c r="AR52" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS52" s="1">
+      <c r="AS52" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT52" s="1">
+      <c r="AT52" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU52" s="1">
+      <c r="AU52" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV52" s="1">
+      <c r="AV52" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW52" s="1">
+      <c r="AW52" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX52" s="1">
+      <c r="AX52" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>510</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>144.4</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>14310</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>32232</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
         <f t="shared" si="4"/>
         <v>2066.364</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <f t="shared" si="5"/>
         <v>4654.3008</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="2">
         <f t="shared" si="6"/>
         <v>3819.2880967562996</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
         <v>90</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="2">
         <f t="shared" si="7"/>
         <v>124601.74920000001</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="2">
         <f t="shared" si="8"/>
         <v>280654.33824000001</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="2">
         <f t="shared" si="9"/>
         <v>230303.07223440488</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AG53" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH53" s="1">
+      <c r="AH53" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI53" s="1">
+      <c r="AI53" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ53" s="1">
+      <c r="AJ53" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK53" s="1">
+      <c r="AK53" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL53" s="1">
+      <c r="AL53" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM53" s="1">
+      <c r="AM53" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN53" s="1">
+      <c r="AN53" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO53" s="1">
+      <c r="AO53" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP53" s="1">
+      <c r="AP53" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ53" s="1">
+      <c r="AQ53" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR53" s="1">
+      <c r="AR53" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS53" s="1">
+      <c r="AS53" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT53" s="1">
+      <c r="AT53" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU53" s="1">
+      <c r="AU53" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV53" s="1">
+      <c r="AV53" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW53" s="1">
+      <c r="AW53" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX53" s="1">
+      <c r="AX53" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>520</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>143</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>12720</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>28928</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
         <f t="shared" si="4"/>
         <v>1818.96</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <f t="shared" si="5"/>
         <v>4136.7039999999997</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="2">
         <f t="shared" si="6"/>
         <v>3389.2146876797283</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2">
         <v>80</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="2">
         <f t="shared" si="7"/>
         <v>97496.256000000008</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="2">
         <f t="shared" si="8"/>
         <v>221727.33439999999</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="2">
         <f t="shared" si="9"/>
         <v>181661.90725963344</v>
       </c>
-      <c r="AG54" s="1">
+      <c r="AG54" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH54" s="1">
+      <c r="AH54" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI54" s="1">
+      <c r="AI54" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ54" s="1">
+      <c r="AJ54" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK54" s="1">
+      <c r="AK54" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL54" s="1">
+      <c r="AL54" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM54" s="1">
+      <c r="AM54" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN54" s="1">
+      <c r="AN54" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO54" s="1">
+      <c r="AO54" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP54" s="1">
+      <c r="AP54" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ54" s="1">
+      <c r="AQ54" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR54" s="1">
+      <c r="AR54" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS54" s="1">
+      <c r="AS54" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT54" s="1">
+      <c r="AT54" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU54" s="1">
+      <c r="AU54" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV54" s="1">
+      <c r="AV54" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW54" s="1">
+      <c r="AW54" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX54" s="1">
+      <c r="AX54" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>530</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>141.4</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>11130</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>25625</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
         <f t="shared" si="4"/>
         <v>1573.7819999999999</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <f t="shared" si="5"/>
         <v>3623.375</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="2">
         <f t="shared" si="6"/>
         <v>2962.7977230919446</v>
       </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
         <v>70</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="2">
         <f t="shared" si="7"/>
         <v>73810.375800000009</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="2">
         <f t="shared" si="8"/>
         <v>169936.28750000003</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="2">
         <f t="shared" si="9"/>
         <v>138955.2132130122</v>
       </c>
-      <c r="AG55" s="1">
+      <c r="AG55" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH55" s="1">
+      <c r="AH55" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI55" s="1">
+      <c r="AI55" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ55" s="1">
+      <c r="AJ55" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AK55" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL55" s="1">
+      <c r="AL55" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM55" s="1">
+      <c r="AM55" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN55" s="1">
+      <c r="AN55" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO55" s="1">
+      <c r="AO55" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP55" s="1">
+      <c r="AP55" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ55" s="1">
+      <c r="AQ55" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR55" s="1">
+      <c r="AR55" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS55" s="1">
+      <c r="AS55" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT55" s="1">
+      <c r="AT55" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU55" s="1">
+      <c r="AU55" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV55" s="1">
+      <c r="AV55" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW55" s="1">
+      <c r="AW55" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX55" s="1">
+      <c r="AX55" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>540</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>140.5</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>9540</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>22321</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
         <f t="shared" si="4"/>
         <v>1340.37</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="2">
         <f t="shared" si="5"/>
         <v>3136.1005</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="2">
         <f t="shared" si="6"/>
         <v>2557.8978520823775</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2">
         <v>60</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="2">
         <f t="shared" si="7"/>
         <v>53882.873999999996</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="2">
         <f t="shared" si="8"/>
         <v>126071.24010000001</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="2">
         <f t="shared" si="9"/>
         <v>102827.49365371159</v>
       </c>
-      <c r="AG56" s="1">
+      <c r="AG56" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH56" s="1">
+      <c r="AH56" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI56" s="1">
+      <c r="AI56" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ56" s="1">
+      <c r="AJ56" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK56" s="1">
+      <c r="AK56" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL56" s="1">
+      <c r="AL56" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM56" s="1">
+      <c r="AM56" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN56" s="1">
+      <c r="AN56" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO56" s="1">
+      <c r="AO56" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP56" s="1">
+      <c r="AP56" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ56" s="1">
+      <c r="AQ56" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR56" s="1">
+      <c r="AR56" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS56" s="1">
+      <c r="AS56" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT56" s="1">
+      <c r="AT56" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU56" s="1">
+      <c r="AU56" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV56" s="1">
+      <c r="AV56" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW56" s="1">
+      <c r="AW56" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX56" s="1">
+      <c r="AX56" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>550</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>139.5</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>7950</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>19018</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
         <f t="shared" si="4"/>
         <v>1109.0250000000001</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="2">
         <f t="shared" si="5"/>
         <v>2653.011</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="2">
         <f t="shared" si="6"/>
         <v>2156.6124238999519</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
         <v>50</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="2">
         <f t="shared" si="7"/>
         <v>37152.337500000001</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="2">
         <f t="shared" si="8"/>
         <v>88875.868499999997</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="2">
         <f t="shared" si="9"/>
         <v>72246.516200648388</v>
       </c>
-      <c r="AG57" s="1">
+      <c r="AG57" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH57" s="1">
+      <c r="AH57" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI57" s="1">
+      <c r="AI57" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ57" s="1">
+      <c r="AJ57" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK57" s="1">
+      <c r="AK57" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL57" s="1">
+      <c r="AL57" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM57" s="1">
+      <c r="AM57" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN57" s="1">
+      <c r="AN57" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO57" s="1">
+      <c r="AO57" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP57" s="1">
+      <c r="AP57" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ57" s="1">
+      <c r="AQ57" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR57" s="1">
+      <c r="AR57" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS57" s="1">
+      <c r="AS57" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT57" s="1">
+      <c r="AT57" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU57" s="1">
+      <c r="AU57" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV57" s="1">
+      <c r="AV57" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW57" s="1">
+      <c r="AW57" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX57" s="1">
+      <c r="AX57" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>560</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>137.30000000000001</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>6360</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>15214</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
         <f t="shared" si="4"/>
         <v>873.22800000000007</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="2">
         <f t="shared" si="5"/>
         <v>2088.8822</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="2">
         <f t="shared" si="6"/>
         <v>1698.04306241677</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2">
         <v>40</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="2">
         <f t="shared" si="7"/>
         <v>23402.510400000003</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="2">
         <f t="shared" si="8"/>
         <v>55982.042959999999</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="2">
         <f t="shared" si="9"/>
         <v>45507.554072769439</v>
       </c>
-      <c r="AG58" s="1">
+      <c r="AG58" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH58" s="1">
+      <c r="AH58" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI58" s="1">
+      <c r="AI58" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ58" s="1">
+      <c r="AJ58" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK58" s="1">
+      <c r="AK58" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL58" s="1">
+      <c r="AL58" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM58" s="1">
+      <c r="AM58" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN58" s="1">
+      <c r="AN58" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO58" s="1">
+      <c r="AO58" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP58" s="1">
+      <c r="AP58" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ58" s="1">
+      <c r="AQ58" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR58" s="1">
+      <c r="AR58" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS58" s="1">
+      <c r="AS58" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT58" s="1">
+      <c r="AT58" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU58" s="1">
+      <c r="AU58" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV58" s="1">
+      <c r="AV58" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW58" s="1">
+      <c r="AW58" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX58" s="1">
+      <c r="AX58" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>570</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>134.69999999999999</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>4770</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>11411</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
         <f t="shared" si="4"/>
         <v>642.51900000000001</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <f t="shared" si="5"/>
         <v>1537.0617</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="2">
         <f t="shared" si="6"/>
         <v>1249.4624847987386</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2">
         <v>30</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="2">
         <f t="shared" si="7"/>
         <v>12914.6319</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59" s="2">
         <f t="shared" si="8"/>
         <v>30894.940170000002</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="2">
         <f t="shared" si="9"/>
         <v>25114.195944454648</v>
       </c>
-      <c r="AG59" s="1">
+      <c r="AG59" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH59" s="1">
+      <c r="AH59" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI59" s="1">
+      <c r="AI59" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ59" s="1">
+      <c r="AJ59" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK59" s="1">
+      <c r="AK59" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL59" s="1">
+      <c r="AL59" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM59" s="1">
+      <c r="AM59" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN59" s="1">
+      <c r="AN59" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO59" s="1">
+      <c r="AO59" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP59" s="1">
+      <c r="AP59" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ59" s="1">
+      <c r="AQ59" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR59" s="1">
+      <c r="AR59" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS59" s="1">
+      <c r="AS59" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT59" s="1">
+      <c r="AT59" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU59" s="1">
+      <c r="AU59" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV59" s="1">
+      <c r="AV59" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW59" s="1">
+      <c r="AW59" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX59" s="1">
+      <c r="AX59" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>580</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>131.19999999999999</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>3180</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>7607</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
         <f t="shared" si="4"/>
         <v>417.21599999999995</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="2">
         <f t="shared" si="5"/>
         <v>998.03839999999991</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="2">
         <f t="shared" si="6"/>
         <v>811.30098248026286</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2">
         <v>20</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="2">
         <f t="shared" si="7"/>
         <v>5590.6943999999994</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60" s="2">
         <f t="shared" si="8"/>
         <v>13373.714559999999</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60" s="2">
         <f t="shared" si="9"/>
         <v>10871.433165235523</v>
       </c>
-      <c r="AG60" s="1">
+      <c r="AG60" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH60" s="1">
+      <c r="AH60" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI60" s="1">
+      <c r="AI60" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ60" s="1">
+      <c r="AJ60" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK60" s="1">
+      <c r="AK60" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL60" s="1">
+      <c r="AL60" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM60" s="1">
+      <c r="AM60" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN60" s="1">
+      <c r="AN60" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO60" s="1">
+      <c r="AO60" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP60" s="1">
+      <c r="AP60" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ60" s="1">
+      <c r="AQ60" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR60" s="1">
+      <c r="AR60" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS60" s="1">
+      <c r="AS60" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT60" s="1">
+      <c r="AT60" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU60" s="1">
+      <c r="AU60" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV60" s="1">
+      <c r="AV60" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW60" s="1">
+      <c r="AW60" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX60" s="1">
+      <c r="AX60" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>590</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>128.9</v>
       </c>
-      <c r="C61" s="1">
-        <f>159*A3</f>
+      <c r="C61" s="2">
         <v>1590</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>3804</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
         <f t="shared" si="4"/>
         <v>204.95099999999999</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="2">
         <f t="shared" si="5"/>
         <v>490.33560000000006</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="2">
         <f t="shared" si="6"/>
         <v>398.58383820527962</v>
       </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
         <v>10</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="2">
         <f t="shared" si="7"/>
         <v>1373.1717000000001</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61" s="2">
         <f t="shared" si="8"/>
         <v>3285.2485200000006</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="2">
         <f t="shared" si="9"/>
         <v>2670.5117159753736</v>
       </c>
-      <c r="AG61" s="1">
+      <c r="AG61" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH61" s="1">
+      <c r="AH61" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI61" s="1">
+      <c r="AI61" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ61" s="1">
+      <c r="AJ61" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK61" s="1">
+      <c r="AK61" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL61" s="1">
+      <c r="AL61" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM61" s="1">
+      <c r="AM61" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN61" s="1">
+      <c r="AN61" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO61" s="1">
+      <c r="AO61" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP61" s="1">
+      <c r="AP61" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ61" s="1">
+      <c r="AQ61" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR61" s="1">
+      <c r="AR61" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS61" s="1">
+      <c r="AS61" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT61" s="1">
+      <c r="AT61" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU61" s="1">
+      <c r="AU61" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV61" s="1">
+      <c r="AV61" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW61" s="1">
+      <c r="AW61" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX61" s="1">
+      <c r="AX61" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>600</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>128.9</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>0</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>0</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG62" s="1">
+      <c r="AG62" s="2">
         <f t="shared" si="10"/>
         <v>13268.073</v>
       </c>
-      <c r="AH62" s="1">
+      <c r="AH62" s="2">
         <f t="shared" si="11"/>
         <v>20223.125</v>
       </c>
-      <c r="AI62" s="1">
+      <c r="AI62" s="2">
         <f t="shared" si="12"/>
         <v>18140.336465131004</v>
       </c>
-      <c r="AJ62" s="1">
+      <c r="AJ62" s="2">
         <f t="shared" si="13"/>
         <v>4889284.9005000005</v>
       </c>
-      <c r="AK62" s="1">
+      <c r="AK62" s="2">
         <f t="shared" si="14"/>
         <v>7452221.5625</v>
       </c>
-      <c r="AL62" s="1">
+      <c r="AL62" s="2">
         <f t="shared" si="15"/>
         <v>6684713.9874007748</v>
       </c>
-      <c r="AM62" s="1">
+      <c r="AM62" s="2">
         <f t="shared" si="16"/>
         <v>9358.74</v>
       </c>
-      <c r="AN62" s="1">
+      <c r="AN62" s="2">
         <f t="shared" si="17"/>
         <v>15164.625</v>
       </c>
-      <c r="AO62" s="1">
+      <c r="AO62" s="2">
         <f t="shared" si="18"/>
         <v>13364.988757954552</v>
       </c>
-      <c r="AP62" s="1">
+      <c r="AP62" s="2">
         <f t="shared" si="19"/>
         <v>2257328.088</v>
       </c>
-      <c r="AQ62" s="1">
+      <c r="AQ62" s="2">
         <f t="shared" si="20"/>
         <v>3657707.5500000003</v>
       </c>
-      <c r="AR62" s="1">
+      <c r="AR62" s="2">
         <f t="shared" si="21"/>
         <v>3223635.2884186381</v>
       </c>
-      <c r="AS62" s="1">
+      <c r="AS62" s="2">
         <f t="shared" si="22"/>
         <v>4124.7780000000002</v>
       </c>
-      <c r="AT62" s="1">
+      <c r="AT62" s="2">
         <f t="shared" si="23"/>
         <v>8354.85</v>
       </c>
-      <c r="AU62" s="1">
+      <c r="AU62" s="2">
         <f t="shared" si="24"/>
         <v>6988.1856043166536</v>
       </c>
-      <c r="AV62" s="1">
+      <c r="AV62" s="2">
         <f t="shared" si="25"/>
         <v>469812.21420000005</v>
       </c>
-      <c r="AW62" s="1">
+      <c r="AW62" s="2">
         <f t="shared" si="26"/>
         <v>951617.41500000004</v>
       </c>
-      <c r="AX62" s="1">
+      <c r="AX62" s="2">
         <f t="shared" si="27"/>
         <v>795954.34033166687</v>
       </c>
@@ -14010,6 +13976,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>